--- a/Remote/Commun/dist_fournisseurs.xlsx
+++ b/Remote/Commun/dist_fournisseurs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\Office\Gaines rectangulaires\bases\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB6C383-4834-4A83-BC88-953A7EC8F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B241BC15-1624-4942-8914-AA4912BB3662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F2BE558-0824-4584-ABEB-A7020B31ADB3}"/>
   </bookViews>
@@ -515,7 +515,9 @@
   <sheetPr codeName="Feuil37"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -560,31 +562,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -592,31 +594,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -624,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -656,31 +658,31 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -688,31 +690,31 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -720,31 +722,31 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -752,31 +754,31 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -784,31 +786,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -816,31 +818,31 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -848,31 +850,31 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -880,31 +882,31 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -912,31 +914,31 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -944,31 +946,31 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -976,31 +978,31 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1008,31 +1010,31 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1040,31 +1042,31 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1072,31 +1074,31 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1104,31 +1106,31 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1136,31 +1138,31 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1168,31 +1170,31 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1200,31 +1202,31 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1238,25 +1240,25 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1270,25 +1272,25 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1302,25 +1304,25 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1334,25 +1336,25 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1366,25 +1368,25 @@
         <v>14</v>
       </c>
       <c r="D27">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1398,25 +1400,25 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1430,25 +1432,25 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1462,25 +1464,25 @@
         <v>17</v>
       </c>
       <c r="D30">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1494,25 +1496,25 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1526,25 +1528,25 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1558,25 +1560,25 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1590,25 +1592,25 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1622,25 +1624,25 @@
         <v>22</v>
       </c>
       <c r="D35">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1654,25 +1656,25 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1686,25 +1688,25 @@
         <v>24</v>
       </c>
       <c r="D37">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1718,25 +1720,25 @@
         <v>25</v>
       </c>
       <c r="D38">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1750,25 +1752,25 @@
         <v>26</v>
       </c>
       <c r="D39">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1782,25 +1784,25 @@
         <v>27</v>
       </c>
       <c r="D40">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1814,25 +1816,25 @@
         <v>28</v>
       </c>
       <c r="D41">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1846,25 +1848,25 @@
         <v>29</v>
       </c>
       <c r="D42">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -1878,25 +1880,25 @@
         <v>30</v>
       </c>
       <c r="D43">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -1910,25 +1912,25 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -1942,25 +1944,25 @@
         <v>11</v>
       </c>
       <c r="D45">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -1974,25 +1976,25 @@
         <v>12</v>
       </c>
       <c r="D46">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2006,25 +2008,25 @@
         <v>13</v>
       </c>
       <c r="D47">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2038,25 +2040,25 @@
         <v>14</v>
       </c>
       <c r="D48">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2070,25 +2072,25 @@
         <v>15</v>
       </c>
       <c r="D49">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2102,25 +2104,25 @@
         <v>16</v>
       </c>
       <c r="D50">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2134,25 +2136,25 @@
         <v>17</v>
       </c>
       <c r="D51">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2166,25 +2168,25 @@
         <v>18</v>
       </c>
       <c r="D52">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2198,25 +2200,25 @@
         <v>19</v>
       </c>
       <c r="D53">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2230,25 +2232,25 @@
         <v>20</v>
       </c>
       <c r="D54">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2262,25 +2264,25 @@
         <v>21</v>
       </c>
       <c r="D55">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2294,25 +2296,25 @@
         <v>22</v>
       </c>
       <c r="D56">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2326,25 +2328,25 @@
         <v>23</v>
       </c>
       <c r="D57">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2358,25 +2360,25 @@
         <v>24</v>
       </c>
       <c r="D58">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2390,25 +2392,25 @@
         <v>25</v>
       </c>
       <c r="D59">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2422,25 +2424,25 @@
         <v>26</v>
       </c>
       <c r="D60">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2454,25 +2456,25 @@
         <v>27</v>
       </c>
       <c r="D61">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2486,25 +2488,25 @@
         <v>28</v>
       </c>
       <c r="D62">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2518,25 +2520,25 @@
         <v>29</v>
       </c>
       <c r="D63">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2550,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D64">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Remote/Commun/dist_fournisseurs.xlsx
+++ b/Remote/Commun/dist_fournisseurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B241BC15-1624-4942-8914-AA4912BB3662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F968FBF6-F23A-4F72-8979-D21DADC331F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F2BE558-0824-4584-ABEB-A7020B31ADB3}"/>
   </bookViews>
@@ -515,8 +515,8 @@
   <sheetPr codeName="Feuil37"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -568,25 +568,25 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -600,25 +600,25 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -632,25 +632,25 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -664,25 +664,25 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -696,25 +696,25 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -728,25 +728,25 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -760,25 +760,25 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -792,25 +792,25 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -824,25 +824,25 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -856,25 +856,25 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -888,25 +888,25 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -920,25 +920,25 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -952,25 +952,25 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -984,25 +984,25 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1016,25 +1016,25 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1048,25 +1048,25 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1080,25 +1080,25 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1112,25 +1112,25 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1144,25 +1144,25 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,25 +1176,25 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1208,25 +1208,25 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1240,25 +1240,25 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1272,25 +1272,25 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1304,25 +1304,25 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1336,25 +1336,25 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1368,25 +1368,25 @@
         <v>14</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1400,25 +1400,25 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1432,25 +1432,25 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1464,25 +1464,25 @@
         <v>17</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1496,25 +1496,25 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1528,25 +1528,25 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1560,25 +1560,25 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1592,25 +1592,25 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1624,25 +1624,25 @@
         <v>22</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1656,25 +1656,25 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1688,25 +1688,25 @@
         <v>24</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1720,25 +1720,25 @@
         <v>25</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1752,25 +1752,25 @@
         <v>26</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1784,25 +1784,25 @@
         <v>27</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1816,25 +1816,25 @@
         <v>28</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1848,25 +1848,25 @@
         <v>29</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -1880,25 +1880,25 @@
         <v>30</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -1912,25 +1912,25 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -1944,25 +1944,25 @@
         <v>11</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -1976,25 +1976,25 @@
         <v>12</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2008,25 +2008,25 @@
         <v>13</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2040,25 +2040,25 @@
         <v>14</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2072,25 +2072,25 @@
         <v>15</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2104,25 +2104,25 @@
         <v>16</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2136,25 +2136,25 @@
         <v>17</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2168,25 +2168,25 @@
         <v>18</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2200,25 +2200,25 @@
         <v>19</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2232,25 +2232,25 @@
         <v>20</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2264,25 +2264,25 @@
         <v>21</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2296,25 +2296,25 @@
         <v>22</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2328,25 +2328,25 @@
         <v>23</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2360,25 +2360,25 @@
         <v>24</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2392,25 +2392,25 @@
         <v>25</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2424,25 +2424,25 @@
         <v>26</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2456,25 +2456,25 @@
         <v>27</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2488,25 +2488,25 @@
         <v>28</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2520,25 +2520,25 @@
         <v>29</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
